--- a/static/file/baowei.xlsx
+++ b/static/file/baowei.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\60360\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD561B6-DA07-4ED5-9673-5DE31BEFD1F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC8CE41-798E-4230-85F0-A70F47F89F16}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8577F1E3-C618-4451-BB1C-994518A86A5E}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{8577F1E3-C618-4451-BB1C-994518A86A5E}"/>
   </bookViews>
   <sheets>
-    <sheet name="保卫处" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,6 +48,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -103,14 +106,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -430,24 +439,24 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="14.25" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="1" max="1" width="14.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>

--- a/static/file/baowei.xlsx
+++ b/static/file/baowei.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\60360\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC8CE41-798E-4230-85F0-A70F47F89F16}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F6F8FA-405C-4DC0-AFA7-1D78695397B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{8577F1E3-C618-4451-BB1C-994518A86A5E}"/>
+    <workbookView xWindow="4365" yWindow="4155" windowWidth="21600" windowHeight="11385" xr2:uid="{8577F1E3-C618-4451-BB1C-994518A86A5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -113,13 +110,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -439,18 +436,18 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="4" customWidth="1"/>
-    <col min="3" max="3" width="22" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">

--- a/static/file/baowei.xlsx
+++ b/static/file/baowei.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\60360\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F6F8FA-405C-4DC0-AFA7-1D78695397B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8362E7C5-CA57-483F-AE0A-0050B15CCB41}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="4155" windowWidth="21600" windowHeight="11385" xr2:uid="{8577F1E3-C618-4451-BB1C-994518A86A5E}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{8577F1E3-C618-4451-BB1C-994518A86A5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -436,7 +436,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
